--- a/biology/Histoire de la zoologie et de la botanique/Eduard_von_Regel/Eduard_von_Regel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eduard_von_Regel/Eduard_von_Regel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard August von Regel est un jardinier et un botaniste allemand, né le 13 août 1815 à Gotha et mort le 15 avril 1892 à Saint-Pétersbourg. Regel est l'auteur de nombreuses études sur la flore de Sibérie orientale, d'Asie centrale, de l'île de Sakhaline, et du kraï d'Oussouri. Il a décrit plus d'un millier d'espèces végétales et a publié des monographies sur la systématique des genres d'Allium (aulx), Tulipa (tulipes), Gagea (gagées), Betula (bouleaux), etc. C'est l'un des premiers à étudier la systématique de la flore du Turkestan, grâce aux envois d'Olga Fedtchenko notamment et d'autres explorateurs russes. Il travailla à partir de 1855 au jardin botanique impérial de Saint-Pétersbourg, dont il fut le directeur de 1875 à sa mort. Il était également l'éditeur de la revue de botanique et d'horticulture Gartenflora.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il apprend l’horticulture à l’orangeraie grand-ducale de Gotha. Il complète sa formation au jardin botanique de Göttingen. Il travaille aux jardins botaniques de Bonn et de Berlin avant d’être nommé directeur de celui de Zurich[1] en 1842. C'est à Zurich qu'il est reçu comme docteur en philosophie spécialisé en botanique et enseigne à l'université. Il fonde en 1852 à Erlangen la revue Gartenflora, où il décrit nombre de plantes. Il publie également avec Oswald Heer le Schweizerische Zeitschrift für Land und Gartenbau.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il apprend l’horticulture à l’orangeraie grand-ducale de Gotha. Il complète sa formation au jardin botanique de Göttingen. Il travaille aux jardins botaniques de Bonn et de Berlin avant d’être nommé directeur de celui de Zurich en 1842. C'est à Zurich qu'il est reçu comme docteur en philosophie spécialisé en botanique et enseigne à l'université. Il fonde en 1852 à Erlangen la revue Gartenflora, où il décrit nombre de plantes. Il publie également avec Oswald Heer le Schweizerische Zeitschrift für Land und Gartenbau.
 En 1855, il s’installe à Saint-Pétersbourg d’abord comme botaniste puis, à partir de 1875, comme directeur du jardin botanique impérial. Il fait un long voyage en Europe occidentale en 1871 afin d'étudier les jardins botaniques et leur gestion et d'obtenir de nouvelles espèces pour celui de Saint-Pétersbourg. Il visite ainsi l'Allemagne, la Belgique, l'Angleterre, la France, l'Autriche, la Suisse et l'Italie et recueille 240 espèces dans des expéditions botaniques et près de 980 espèces nouvelles, surtout obtenues en échange, de la part des autres jardins botaniques.
 Regel se consacre particulièrement à l’étude et l’amélioration des arbres fruitiers russes. Il crée un jardin de pommiers en 1863 sur ses propres deniers. Il est notamment l’auteur de Allgemeines Gartenbuch (deux volumes, Zürich, 1855 et 1868). Il introduit de nombreuses espèces d'Asie centrale et du Turkestan russe.
 Regel est à l'origine de la fondation du musée botanique de Saint-Pétersbourg, du laboratoire botanique du jardin, du jardin d'acclimatation de Saint-Pétersbourg, de la Société impériale russe d'horticulture (dont il est vice-président), ainsi que de plusieurs journaux et publications concernant le jardinage. Ce fut un auteur extrêmement prolifique de plus de trois mille descriptions d'espèces.
@@ -545,7 +559,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard von Regel est le père de l'explorateur Johann Albert von Regel (1845-1885), du dendrologue Arnold Regel (1856-1917) et du botaniste Robert Regel (1867-1920).
 Eduard von Regel est enterré au cimetière luthérien de Saint-Pétersbourg.
@@ -577,7 +593,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Allgemeines Gartenbuch. 2 Bde. (Zürich 1855, 1868)
 Cultur der Pflanzen unserer höheren Gebirge sowie des hohen Nordens mit 1 Taf. Abb. Enke, Erlangen 1856.
@@ -619,7 +637,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des genres de plantes ont été baptisés de son nom en son honneur: Regelia Schauer, de la famille des Myrtaceae, et Neoregelia L.B.Sm., de la famille des Bromeliaceae.
 </t>
